--- a/Tournament Results.xlsx
+++ b/Tournament Results.xlsx
@@ -35807,6 +35807,6706 @@
         <v>113</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" t="n">
+        <v>119.207988583207</v>
+      </c>
+      <c r="C105" t="n">
+        <v>96.5974889273723</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.697182407365866</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.562601468510551</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.784952370602639</v>
+      </c>
+      <c r="G105" t="n">
+        <v>107.82525850762</v>
+      </c>
+      <c r="H105" t="n">
+        <v>98.8665697694378</v>
+      </c>
+      <c r="I105" t="n">
+        <v>69.0715832737724</v>
+      </c>
+      <c r="J105" t="n">
+        <v>10</v>
+      </c>
+      <c r="K105" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>52</v>
+      </c>
+      <c r="M105" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N105" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="O105" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="P105" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="R105" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="S105" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="T105" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="U105" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="V105" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>69.6</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BD105" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>114.470326912074</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>98.104775271376</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0.616692707955389</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>0.563753655267951</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0.605478001632765</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>105.951252331512</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>100.871131739141</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>70.8528458248423</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="BQ105" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="BR105" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="BT105" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="BV105" t="n">
+        <v>110</v>
+      </c>
+      <c r="BW105" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="BX105" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="BY105" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BZ105" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="CA105" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="CB105" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CC105" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="CD105" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="CE105" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="CF105" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="CG105" t="n">
+        <v>20</v>
+      </c>
+      <c r="CH105" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="CI105" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="CJ105" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="CK105" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="CL105" t="n">
+        <v>15</v>
+      </c>
+      <c r="CM105" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="CN105" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="CO105" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="CP105" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="CQ105" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="CR105" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="CS105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="CT105" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="CU105" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="CV105" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="CW105" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="CX105" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="CY105" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="CZ105" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="DA105" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="DB105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="DC105" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="DD105" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="DE105" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="DF105" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="DG105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" t="n">
+        <v>119.198596339943</v>
+      </c>
+      <c r="C106" t="n">
+        <v>90.9704107833656</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.689418633784305</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.586180591409097</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.74794991670482</v>
+      </c>
+      <c r="G106" t="n">
+        <v>108.577146359127</v>
+      </c>
+      <c r="H106" t="n">
+        <v>99.3326345272178</v>
+      </c>
+      <c r="I106" t="n">
+        <v>67.1236854550484</v>
+      </c>
+      <c r="J106" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K106" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="M106" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="N106" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O106" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="P106" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="R106" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="T106" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="U106" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="W106" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="X106" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>98.4</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BD106" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>114.909238073689</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>95.0935811218797</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>0.66717329315933</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>0.542645265762463</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>0.750485269189071</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>109.103412037936</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>100.377949985896</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>69.6795657956638</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="BQ106" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR106" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="BS106" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="BT106" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>72.1</v>
+      </c>
+      <c r="BV106" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="BW106" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="BX106" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="BY106" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="BZ106" t="n">
+        <v>70</v>
+      </c>
+      <c r="CA106" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="CB106" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="CC106" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="CD106" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="CE106" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CG106" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="CH106" t="n">
+        <v>-9.2</v>
+      </c>
+      <c r="CI106" t="n">
+        <v>45</v>
+      </c>
+      <c r="CJ106" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="CK106" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="CL106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="CM106" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="CN106" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="CO106" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="CP106" t="n">
+        <v>68</v>
+      </c>
+      <c r="CQ106" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="CR106" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="CS106" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="CT106" t="n">
+        <v>30</v>
+      </c>
+      <c r="CU106" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="CV106" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="CW106" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="CX106" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="CY106" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="CZ106" t="n">
+        <v>16</v>
+      </c>
+      <c r="DA106" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="DB106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="DC106" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD106" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="DE106" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="DF106" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="DG106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" t="n">
+        <v>117.597049051533</v>
+      </c>
+      <c r="C107" t="n">
+        <v>93.7983746331459</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.74033704796253</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.562801592881046</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.838865652058216</v>
+      </c>
+      <c r="G107" t="n">
+        <v>110.323730476969</v>
+      </c>
+      <c r="H107" t="n">
+        <v>98.077274175423</v>
+      </c>
+      <c r="I107" t="n">
+        <v>70.9404429478541</v>
+      </c>
+      <c r="J107" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="L107" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="M107" t="n">
+        <v>39</v>
+      </c>
+      <c r="N107" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="O107" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="P107" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="T107" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="W107" t="n">
+        <v>72.4</v>
+      </c>
+      <c r="X107" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>70.6</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="BD107" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>111.607560693973</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>93.9931193379201</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>0.595965812761331</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0.544403632229884</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>0.60810724651242</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>106.463724826403</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>102.242276890471</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>70.1593070613953</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>54</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>50</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>52</v>
+      </c>
+      <c r="CB107" t="n">
+        <v>7</v>
+      </c>
+      <c r="CC107" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="CD107" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="CE107" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="CG107" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="CH107" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="CI107" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="CL107" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="CM107" t="n">
+        <v>49</v>
+      </c>
+      <c r="CN107" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="CO107" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="CP107" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="CQ107" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="CR107" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="CS107" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="CT107" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="CU107" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="CV107" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="CW107" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CX107" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="CY107" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="DC107" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="DD107" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="DE107" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="DF107" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="DG107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" t="n">
+        <v>117.176472189139</v>
+      </c>
+      <c r="C108" t="n">
+        <v>94.8571457094207</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.690790663740905</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.587162685538026</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.752329197694527</v>
+      </c>
+      <c r="G108" t="n">
+        <v>107.619736825703</v>
+      </c>
+      <c r="H108" t="n">
+        <v>98.4556969123613</v>
+      </c>
+      <c r="I108" t="n">
+        <v>72.253633831832</v>
+      </c>
+      <c r="J108" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K108" t="n">
+        <v>52</v>
+      </c>
+      <c r="L108" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>28</v>
+      </c>
+      <c r="N108" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="O108" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="P108" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="R108" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="T108" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="U108" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="W108" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="X108" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BD108" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>109.952817022158</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>94.5211144541652</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>0.688771709192878</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>0.573625586135547</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0.760714212565563</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>109.297741613338</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>99.6168765577985</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>63.8563726339887</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="BQ108" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="CB108" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="CC108" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD108" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="CE108" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="CH108" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="CI108" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="CM108" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="CN108" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="CO108" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="CP108" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="CQ108" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="CR108" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="CS108" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="CT108" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="CU108" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="CV108" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CW108" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CX108" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="CY108" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>27</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="DC108" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="DD108" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="DE108" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="DF108" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="DG108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" t="n">
+        <v>113.882566471212</v>
+      </c>
+      <c r="C109" t="n">
+        <v>91.8244094951571</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.705171168957624</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.603297316586466</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.758957141991513</v>
+      </c>
+      <c r="G109" t="n">
+        <v>109.207907542131</v>
+      </c>
+      <c r="H109" t="n">
+        <v>99.5792672126971</v>
+      </c>
+      <c r="I109" t="n">
+        <v>68.0184127783278</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="L109" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="O109" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="P109" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="T109" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="U109" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="W109" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="X109" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1.405</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>0.563</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="BD109" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>109.403886010043</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>96.9917472493253</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>0.593813317158436</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>0.66024751653408</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0.510071781362583</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>104.75910544166</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>100.124890047517</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>63.3985810449774</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="BQ109" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="BT109" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>75.6</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>114</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="CB109" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="CC109" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="CD109" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="CE109" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="CG109" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="CH109" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="CI109" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="CL109" t="n">
+        <v>15</v>
+      </c>
+      <c r="CM109" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="CN109" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="CO109" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="CP109" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="CQ109" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="CR109" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="CS109" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="CT109" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="CU109" t="n">
+        <v>85.1</v>
+      </c>
+      <c r="CV109" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="CW109" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="CX109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CY109" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CZ109" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="DA109" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="DB109" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="DC109" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="DD109" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="DE109" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="DF109" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DG109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" t="n">
+        <v>115.308945583113</v>
+      </c>
+      <c r="C110" t="n">
+        <v>96.5324691335507</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.663406617723953</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.507600821717068</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.744470944670968</v>
+      </c>
+      <c r="G110" t="n">
+        <v>108.143147627222</v>
+      </c>
+      <c r="H110" t="n">
+        <v>99.8410987314513</v>
+      </c>
+      <c r="I110" t="n">
+        <v>67.8501768922685</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>51</v>
+      </c>
+      <c r="L110" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="N110" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="O110" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="P110" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="U110" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="V110" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="W110" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="X110" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>72.4</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BD110" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>107.345849551407</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>95.1420794063007</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>0.485074137548932</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>0.399750285407012</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>0.497249928420426</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>102.218643422943</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>102.987436231627</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>71.3422279595868</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>51</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>28</v>
+      </c>
+      <c r="BQ110" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>69</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>75.4</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="CB110" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="CD110" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>44</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="CN110" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="CO110" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="CV110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CW110" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="CX110" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="CY110" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="CZ110" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="DC110" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="DD110" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="DE110" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="DF110" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="DG110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>117.652054517882</v>
+      </c>
+      <c r="C111" t="n">
+        <v>102.830522088374</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.696568779670273</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.507299244371389</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.789798956869261</v>
+      </c>
+      <c r="G111" t="n">
+        <v>109.928137863157</v>
+      </c>
+      <c r="H111" t="n">
+        <v>99.8755654535868</v>
+      </c>
+      <c r="I111" t="n">
+        <v>65.7646326333598</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L111" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="N111" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O111" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="P111" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="R111" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="S111" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="T111" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="U111" t="n">
+        <v>19</v>
+      </c>
+      <c r="V111" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="W111" t="n">
+        <v>70.9</v>
+      </c>
+      <c r="X111" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.407</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BD111" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>109.555913032554</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>95.8347818451295</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0.347636770619497</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0.585621710165194</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0.212410343870782</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>101.424214898848</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>107.930600973658</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>68.3302355098814</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>30</v>
+      </c>
+      <c r="BQ111" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="CI111" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="CM111" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="CN111" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="CO111" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="CP111" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="CQ111" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="CR111" t="n">
+        <v>51</v>
+      </c>
+      <c r="CS111" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="CT111" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CU111" t="n">
+        <v>67.4</v>
+      </c>
+      <c r="CV111" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="CW111" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="CX111" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CY111" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="DD111" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="DF111" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="DG111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111.65116532765</v>
+      </c>
+      <c r="C112" t="n">
+        <v>94.0827921694371</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.687049814385115</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.519096810189781</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.791553877154163</v>
+      </c>
+      <c r="G112" t="n">
+        <v>109.541741581796</v>
+      </c>
+      <c r="H112" t="n">
+        <v>99.82047172487</v>
+      </c>
+      <c r="I112" t="n">
+        <v>65.5066490996502</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>48</v>
+      </c>
+      <c r="L112" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="O112" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="P112" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="R112" t="n">
+        <v>68.9</v>
+      </c>
+      <c r="S112" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="T112" t="n">
+        <v>56</v>
+      </c>
+      <c r="U112" t="n">
+        <v>20</v>
+      </c>
+      <c r="V112" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="W112" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="X112" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>66</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="BD112" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>103.955335339885</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>99.2110554696354</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0.484272672737374</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0.571136556052748</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>0.401991382162994</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>104.513272987879</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>105.150771905187</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>68.5190062703946</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="BQ112" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="CB112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="CE112" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="CH112" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="CI112" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>28</v>
+      </c>
+      <c r="CL112" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="CM112" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="CN112" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="CO112" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="CP112" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="CQ112" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="CR112" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="CS112" t="n">
+        <v>23</v>
+      </c>
+      <c r="CT112" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="CU112" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="CV112" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="CW112" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="CX112" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="CY112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="DA112" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="DC112" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="DD112" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DF112" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DG112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" t="n">
+        <v>121.6831458911</v>
+      </c>
+      <c r="C113" t="n">
+        <v>90.8537298019909</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.748866484782532</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.60641134060842</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.835014384605607</v>
+      </c>
+      <c r="G113" t="n">
+        <v>110.5884497666</v>
+      </c>
+      <c r="H113" t="n">
+        <v>97.974422352958</v>
+      </c>
+      <c r="I113" t="n">
+        <v>70.2888297901681</v>
+      </c>
+      <c r="J113" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="M113" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="N113" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="O113" t="n">
+        <v>56</v>
+      </c>
+      <c r="P113" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="R113" t="n">
+        <v>71</v>
+      </c>
+      <c r="S113" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="T113" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="U113" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="V113" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="W113" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="X113" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD113" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>115.0409760547</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>96.3129827359698</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0.665395999003135</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0.506449356035017</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0.741566326503925</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>108.049944773383</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>99.7422590165668</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>68.007491261509</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="BQ113" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>27</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="CB113" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC113" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="CD113" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="CE113" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="CG113" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="CH113" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="CI113" t="n">
+        <v>45</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="CL113" t="n">
+        <v>17</v>
+      </c>
+      <c r="CM113" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="CN113" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="CO113" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="CP113" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="CQ113" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="CR113" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="CS113" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="CT113" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="CU113" t="n">
+        <v>73</v>
+      </c>
+      <c r="CV113" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="CW113" t="n">
+        <v>8</v>
+      </c>
+      <c r="CX113" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="CY113" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="CZ113" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="DC113" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="DD113" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="DE113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="DF113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DG113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" t="n">
+        <v>118.702796320993</v>
+      </c>
+      <c r="C114" t="n">
+        <v>96.109437447196</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.702385374987833</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.566296331522048</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.784362992467718</v>
+      </c>
+      <c r="G114" t="n">
+        <v>108.022005945247</v>
+      </c>
+      <c r="H114" t="n">
+        <v>98.820209768108</v>
+      </c>
+      <c r="I114" t="n">
+        <v>69.1756634202425</v>
+      </c>
+      <c r="J114" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K114" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L114" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="M114" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N114" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="O114" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="P114" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="R114" t="n">
+        <v>72.1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="T114" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="U114" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="V114" t="n">
+        <v>32</v>
+      </c>
+      <c r="W114" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="X114" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1.202</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>68</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="BD114" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>121.853851485558</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>98.9011149634886</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0.742751917320109</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0.627655020040883</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0.817330045342496</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>111.179177322835</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>99.3276912608729</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>68.7200926121135</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>54</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="BQ114" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>51</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>-9.3</v>
+      </c>
+      <c r="CI114" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>15</v>
+      </c>
+      <c r="CM114" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="CN114" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="CO114" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="CP114" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="CQ114" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="CR114" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="CS114" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="CT114" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="CU114" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="CV114" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CW114" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="CX114" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="CY114" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="DA114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="DD114" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="DE114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DF114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="DG114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>120.03448568402</v>
+      </c>
+      <c r="C115" t="n">
+        <v>90.8610291878696</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.695374681672639</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.58627402567364</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.748480722467082</v>
+      </c>
+      <c r="G115" t="n">
+        <v>108.767530796379</v>
+      </c>
+      <c r="H115" t="n">
+        <v>99.2203364219929</v>
+      </c>
+      <c r="I115" t="n">
+        <v>67.3116835541541</v>
+      </c>
+      <c r="J115" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>47</v>
+      </c>
+      <c r="M115" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="N115" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="O115" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="P115" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="R115" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="T115" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="U115" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="W115" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="X115" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BD115" t="s">
+        <v>179</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>118.526711262081</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>95.3491786600332</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0.741557495997657</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0.598952488004572</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0.820993897351235</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>110.615822365073</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>98.8080847523603</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>67.3088235848354</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ115" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>54</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>75</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>-8.7</v>
+      </c>
+      <c r="CI115" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="CM115" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="CN115" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="CO115" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>71</v>
+      </c>
+      <c r="CQ115" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="CR115" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="CS115" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="CV115" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="CW115" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="CX115" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="CY115" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>25</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="DF115" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="DG115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" t="n">
+        <v>118.086549928311</v>
+      </c>
+      <c r="C116" t="n">
+        <v>94.0463307430866</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.744305519979045</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.562689376276024</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.838981225065052</v>
+      </c>
+      <c r="G116" t="n">
+        <v>110.362815989193</v>
+      </c>
+      <c r="H116" t="n">
+        <v>97.9362135658147</v>
+      </c>
+      <c r="I116" t="n">
+        <v>71.1293619058562</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K116" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="L116" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="M116" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="N116" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="O116" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="P116" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="T116" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="U116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="W116" t="n">
+        <v>72.4</v>
+      </c>
+      <c r="X116" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>67.9</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>70.6</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="BD116" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>113.647936482682</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>92.0572990156981</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0.70532378229764</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0.604272351024052</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0.752809166362235</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>109.165775476913</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>99.5913163939162</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>68.4134925432595</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>53</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="CD116" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="CI116" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>47</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="CM116" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="CN116" t="n">
+        <v>33</v>
+      </c>
+      <c r="CO116" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="CQ116" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="CR116" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="CS116" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="CV116" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="CW116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CX116" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="CY116" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="CZ116" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="DD116" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="DF116" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="DG116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="n">
+        <v>120.022179933155</v>
+      </c>
+      <c r="C117" t="n">
+        <v>93.5984436540394</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.721181702445354</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.602187043175466</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.787307967662953</v>
+      </c>
+      <c r="G117" t="n">
+        <v>110.245570039623</v>
+      </c>
+      <c r="H117" t="n">
+        <v>99.3188505088906</v>
+      </c>
+      <c r="I117" t="n">
+        <v>72.302263957558</v>
+      </c>
+      <c r="J117" t="n">
+        <v>13</v>
+      </c>
+      <c r="K117" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="M117" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="N117" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="O117" t="n">
+        <v>52</v>
+      </c>
+      <c r="P117" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="R117" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>111</v>
+      </c>
+      <c r="T117" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="U117" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="V117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="W117" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="X117" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BD117" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>120.851970319424</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>97.4365737703509</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>0.629147479228263</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>0.477917072562238</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>0.709794424772878</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>107.693915613802</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>101.252593920211</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>69.6169046773451</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="BQ117" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>58</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>36</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>23</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CI117" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="CM117" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="CN117" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="CO117" t="n">
+        <v>49</v>
+      </c>
+      <c r="CP117" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="CQ117" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="CR117" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="CS117" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>64</v>
+      </c>
+      <c r="CV117" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="CW117" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="CX117" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="CY117" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="DD117" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="DE117" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DF117" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="DG117" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" t="n">
+        <v>119.696343477624</v>
+      </c>
+      <c r="C118" t="n">
+        <v>91.3213848216716</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.744737191514553</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.626188743585968</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.816684363235537</v>
+      </c>
+      <c r="G118" t="n">
+        <v>110.903325738117</v>
+      </c>
+      <c r="H118" t="n">
+        <v>98.546157773343</v>
+      </c>
+      <c r="I118" t="n">
+        <v>61.5762074767308</v>
+      </c>
+      <c r="J118" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K118" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="L118" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="M118" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="N118" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="P118" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>75.4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="T118" t="n">
+        <v>53</v>
+      </c>
+      <c r="U118" t="n">
+        <v>17</v>
+      </c>
+      <c r="V118" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="W118" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="X118" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BD118" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>121.808784084489</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>98.1405547951016</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0.733258105233949</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>0.567153474665537</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>0.842611731437408</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>109.17524953061</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>97.6469189745077</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>72.2426344758164</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="BQ118" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="BR118" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="BS118" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="BT118" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="BV118" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="BW118" t="n">
+        <v>62</v>
+      </c>
+      <c r="BX118" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="BY118" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="BZ118" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="CA118" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="CB118" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="CC118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="CD118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="CE118" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="CF118" t="n">
+        <v>14</v>
+      </c>
+      <c r="CG118" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="CH118" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="CI118" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="CJ118" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="CK118" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="CL118" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CM118" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="CN118" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="CO118" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="CP118" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="CQ118" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="CR118" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="CS118" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="CT118" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="CU118" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="CV118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CW118" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="CX118" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="CY118" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="CZ118" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="DA118" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="DB118" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="DC118" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="DD118" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="DE118" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="DF118" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="DG118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118.024600492623</v>
+      </c>
+      <c r="C119" t="n">
+        <v>103.285713259609</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.698690069802346</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.503693703721841</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.789550215778161</v>
+      </c>
+      <c r="G119" t="n">
+        <v>109.935901997633</v>
+      </c>
+      <c r="H119" t="n">
+        <v>99.8923249086837</v>
+      </c>
+      <c r="I119" t="n">
+        <v>65.7829939678321</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>53</v>
+      </c>
+      <c r="L119" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="M119" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O119" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="P119" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="S119" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="T119" t="n">
+        <v>57</v>
+      </c>
+      <c r="U119" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="V119" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="W119" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="X119" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>72.4</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="BD119" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>109.623999340506</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>94.0722370167085</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>0.694582651092924</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>0.575342005317291</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>0.757830255796476</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>109.49869765607</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>99.4933424916416</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>64.0466275412579</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="BQ119" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="BR119" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="BS119" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="BT119" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="BV119" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="BW119" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="BX119" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="BY119" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="BZ119" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="CA119" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="CB119" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CC119" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="CD119" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="CE119" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="CF119" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="CG119" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="CH119" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="CI119" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="CJ119" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="CK119" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="CL119" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="CM119" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="CN119" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CO119" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="CP119" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="CQ119" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="CR119" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="CS119" t="n">
+        <v>18</v>
+      </c>
+      <c r="CT119" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="CU119" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="CV119" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="CW119" t="n">
+        <v>7</v>
+      </c>
+      <c r="CX119" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="CY119" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="CZ119" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="DA119" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="DB119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="DC119" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DD119" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="DE119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DG119" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" t="n">
+        <v>112.000210311924</v>
+      </c>
+      <c r="C120" t="n">
+        <v>93.9637406041605</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.683829257188304</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.517249909087613</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.790940123022483</v>
+      </c>
+      <c r="G120" t="n">
+        <v>109.33706335651</v>
+      </c>
+      <c r="H120" t="n">
+        <v>99.8695624917546</v>
+      </c>
+      <c r="I120" t="n">
+        <v>65.5163063361491</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K120" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="L120" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="M120" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="O120" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="P120" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="R120" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="S120" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="T120" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="U120" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="V120" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="W120" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="X120" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="BD120" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>117.806692926399</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>94.4941251474402</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>0.596605571591735</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>0.642166073790738</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>0.514305543334886</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>106.95088813557</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>102.042392642699</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>68.3698649122047</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>53</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="BQ120" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="BR120" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="BS120" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="BT120" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="BV120" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="BW120" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="BX120" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="BY120" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="BZ120" t="n">
+        <v>76.1</v>
+      </c>
+      <c r="CA120" t="n">
+        <v>55</v>
+      </c>
+      <c r="CB120" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="CC120" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CD120" t="n">
+        <v>1.206</v>
+      </c>
+      <c r="CE120" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CG120" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="CH120" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="CI120" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="CJ120" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="CK120" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CL120" t="n">
+        <v>18</v>
+      </c>
+      <c r="CM120" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="CN120" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="CO120" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="CP120" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="CQ120" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="CR120" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="CS120" t="n">
+        <v>17</v>
+      </c>
+      <c r="CT120" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="CU120" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="CV120" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="CW120" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="CX120" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="CY120" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="CZ120" t="n">
+        <v>13</v>
+      </c>
+      <c r="DA120" t="n">
+        <v>25</v>
+      </c>
+      <c r="DB120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DC120" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="DD120" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="DE120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DG120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" t="n">
+        <v>121.633866818027</v>
+      </c>
+      <c r="C121" t="n">
+        <v>90.667370968812</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.75310851361781</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.607294090844392</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.835371576454156</v>
+      </c>
+      <c r="G121" t="n">
+        <v>110.734352129273</v>
+      </c>
+      <c r="H121" t="n">
+        <v>97.9246694173642</v>
+      </c>
+      <c r="I121" t="n">
+        <v>70.1101250536745</v>
+      </c>
+      <c r="J121" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L121" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="M121" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>20</v>
+      </c>
+      <c r="O121" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="P121" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="S121" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="T121" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="U121" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="V121" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="W121" t="n">
+        <v>73.9</v>
+      </c>
+      <c r="X121" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>1.261</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD121" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>121.812273359517</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>91.4199745279572</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>0.703116585530411</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>0.586940214876556</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>0.75102733548364</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>109.075740841213</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>99.0501993246106</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>66.956548534176</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="BQ121" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="BR121" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="BS121" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="BT121" t="n">
+        <v>57</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="BV121" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="BW121" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="BX121" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="BY121" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="BZ121" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="CA121" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="CB121" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="CC121" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="CD121" t="n">
+        <v>1.491</v>
+      </c>
+      <c r="CE121" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="CF121" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="CG121" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="CH121" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="CI121" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="CJ121" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="CK121" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="CL121" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="CM121" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="CN121" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="CO121" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="CP121" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="CQ121" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="CR121" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="CS121" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="CT121" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="CU121" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="CV121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CW121" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="CX121" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="CY121" t="n">
+        <v>0.568</v>
+      </c>
+      <c r="CZ121" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="DA121" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="DB121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="DC121" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="DD121" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="DE121" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="DF121" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DG121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" t="n">
+        <v>118.905531039805</v>
+      </c>
+      <c r="C122" t="n">
+        <v>95.6642367954331</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.709481691583528</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.566237866456253</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.786484609006521</v>
+      </c>
+      <c r="G122" t="n">
+        <v>108.440436537486</v>
+      </c>
+      <c r="H122" t="n">
+        <v>98.7949705155262</v>
+      </c>
+      <c r="I122" t="n">
+        <v>69.0263227038563</v>
+      </c>
+      <c r="J122" t="n">
+        <v>10</v>
+      </c>
+      <c r="K122" t="n">
+        <v>53</v>
+      </c>
+      <c r="L122" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="M122" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="N122" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="O122" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="P122" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="R122" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="S122" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="T122" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="U122" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="W122" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="X122" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="BD122" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>118.174327484571</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>93.4832897432813</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0.749140396979468</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0.563186486831111</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>0.838863255151903</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>110.474753309551</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>97.7989974431932</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>71.0027724108477</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="BQ122" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="BR122" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="BS122" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="BT122" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>72.1</v>
+      </c>
+      <c r="BV122" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="BW122" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="BX122" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="BY122" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="BZ122" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="CA122" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="CB122" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="CC122" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="CD122" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="CE122" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="CF122" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CG122" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="CH122" t="n">
+        <v>-10</v>
+      </c>
+      <c r="CI122" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="CJ122" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="CK122" t="n">
+        <v>32</v>
+      </c>
+      <c r="CL122" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="CM122" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="CN122" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="CO122" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="CP122" t="n">
+        <v>67.4</v>
+      </c>
+      <c r="CQ122" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="CR122" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="CS122" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="CT122" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CU122" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="CV122" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="CW122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CX122" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="CY122" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="CZ122" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="DA122" t="n">
+        <v>23</v>
+      </c>
+      <c r="DB122" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="DC122" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="DD122" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="DE122" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="DF122" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="DG122" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121.352706737191</v>
+      </c>
+      <c r="C123" t="n">
+        <v>93.8781731051799</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.728275542681073</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.602109014916036</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.79032578340482</v>
+      </c>
+      <c r="G123" t="n">
+        <v>110.572894303704</v>
+      </c>
+      <c r="H123" t="n">
+        <v>99.1834780618774</v>
+      </c>
+      <c r="I123" t="n">
+        <v>72.2476615180003</v>
+      </c>
+      <c r="J123" t="n">
+        <v>13</v>
+      </c>
+      <c r="K123" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="L123" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="O123" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="P123" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="R123" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="S123" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="T123" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="U123" t="n">
+        <v>21</v>
+      </c>
+      <c r="V123" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="W123" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="X123" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BD123" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>117.404569469995</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>102.522999256047</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>0.704464435382399</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>0.502624170028663</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>0.792777829479718</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>110.055422090353</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>99.7148785365</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>65.857406874202</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="BQ123" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BR123" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="BS123" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="BT123" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="BV123" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="BW123" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="BX123" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="BY123" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="BZ123" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="CA123" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="CB123" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="CC123" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="CD123" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="CE123" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="CG123" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="CH123" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="CI123" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="CJ123" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="CK123" t="n">
+        <v>33</v>
+      </c>
+      <c r="CL123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="CM123" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="CN123" t="n">
+        <v>37</v>
+      </c>
+      <c r="CO123" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="CP123" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="CQ123" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="CR123" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="CS123" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="CT123" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="CU123" t="n">
+        <v>68.9</v>
+      </c>
+      <c r="CV123" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CW123" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="CX123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CY123" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="CZ123" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="DA123" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="DB123" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="DC123" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="DD123" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="DE123" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="DF123" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="DG123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" t="n">
+        <v>120.200848758277</v>
+      </c>
+      <c r="C124" t="n">
+        <v>90.9974014555029</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.751446905581742</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.626390869068048</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.819705743934497</v>
+      </c>
+      <c r="G124" t="n">
+        <v>111.312774568931</v>
+      </c>
+      <c r="H124" t="n">
+        <v>98.4821699513914</v>
+      </c>
+      <c r="I124" t="n">
+        <v>61.7113755830615</v>
+      </c>
+      <c r="J124" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>54</v>
+      </c>
+      <c r="L124" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="M124" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="N124" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="P124" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="R124" t="n">
+        <v>75.1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="T124" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="U124" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="V124" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="W124" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="X124" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>1.601</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>0.563</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BD124" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>111.874051715669</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>93.609098514319</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0.692463231120388</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>0.517014441355467</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>0.794264259637418</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>109.678020871947</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>99.6535292992634</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>65.4459609278612</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="BQ124" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="BR124" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="BS124" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="BT124" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>69.1</v>
+      </c>
+      <c r="BV124" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="BW124" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="BX124" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="BY124" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="BZ124" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="CA124" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="CB124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CC124" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="CD124" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="CE124" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="CF124" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="CG124" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="CH124" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="CI124" t="n">
+        <v>45</v>
+      </c>
+      <c r="CJ124" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="CK124" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="CL124" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="CM124" t="n">
+        <v>47</v>
+      </c>
+      <c r="CN124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="CO124" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="CP124" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="CQ124" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="CR124" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="CS124" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="CT124" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="CU124" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="CV124" t="n">
+        <v>5</v>
+      </c>
+      <c r="CW124" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="CX124" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="CY124" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="CZ124" t="n">
+        <v>17</v>
+      </c>
+      <c r="DA124" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="DB124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DC124" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="DD124" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="DE124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DG124" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tournament Results.xlsx
+++ b/Tournament Results.xlsx
@@ -42507,6 +42507,1011 @@
         <v>122</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>122.472408880856</v>
+      </c>
+      <c r="C125" t="n">
+        <v>94.6831103934111</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.731504316498081</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.603121914343077</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.790876256090942</v>
+      </c>
+      <c r="G125" t="n">
+        <v>110.797185112423</v>
+      </c>
+      <c r="H125" t="n">
+        <v>99.2863885840249</v>
+      </c>
+      <c r="I125" t="n">
+        <v>71.7572758629269</v>
+      </c>
+      <c r="J125" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="L125" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="N125" t="n">
+        <v>19</v>
+      </c>
+      <c r="O125" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="P125" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="R125" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="S125" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="T125" t="n">
+        <v>64</v>
+      </c>
+      <c r="U125" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="V125" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="W125" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="X125" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BD125" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>111.887498470978</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>93.2967229009327</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>0.700702559833434</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>0.517936613792802</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>0.794525575768337</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>110.052235729994</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>99.452497067608</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>65.4975872773356</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="BQ125" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="BT125" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="BV125" t="n">
+        <v>107</v>
+      </c>
+      <c r="BW125" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="BX125" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="BZ125" t="n">
+        <v>67</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="CB125" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="CC125" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="CD125" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="CE125" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="CF125" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="CG125" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="CH125" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="CI125" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="CJ125" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="CK125" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="CL125" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="CM125" t="n">
+        <v>47</v>
+      </c>
+      <c r="CN125" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="CO125" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="CP125" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="CQ125" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="CR125" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="CS125" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="CT125" t="n">
+        <v>33</v>
+      </c>
+      <c r="CU125" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="CV125" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="CW125" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="CX125" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="CY125" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="CZ125" t="n">
+        <v>17</v>
+      </c>
+      <c r="DA125" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="DB125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DC125" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="DD125" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="DE125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DG125" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" t="n">
+        <v>118.70227059828</v>
+      </c>
+      <c r="C126" t="n">
+        <v>93.1606214962715</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.75453708018108</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.563394891283762</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.839881470981451</v>
+      </c>
+      <c r="G126" t="n">
+        <v>110.708500425401</v>
+      </c>
+      <c r="H126" t="n">
+        <v>97.7125081879537</v>
+      </c>
+      <c r="I126" t="n">
+        <v>70.901528263298</v>
+      </c>
+      <c r="J126" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="L126" t="n">
+        <v>43</v>
+      </c>
+      <c r="M126" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="N126" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="P126" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="S126" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="U126" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="V126" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="W126" t="n">
+        <v>72</v>
+      </c>
+      <c r="X126" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="BD126" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>121.607651393701</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>90.9489303078528</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>0.711354159630472</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0.588242734646016</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>0.752598454548143</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>109.45666079805</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>98.7883640982027</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>66.8624144413201</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="BQ126" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="BR126" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="BS126" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="BT126" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="BV126" t="n">
+        <v>118</v>
+      </c>
+      <c r="BW126" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="BX126" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="BY126" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="BZ126" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="CA126" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="CB126" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC126" t="n">
+        <v>9</v>
+      </c>
+      <c r="CD126" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="CE126" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="CF126" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="CG126" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="CH126" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="CI126" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="CJ126" t="n">
+        <v>49</v>
+      </c>
+      <c r="CK126" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="CL126" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="CM126" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="CN126" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="CO126" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="CP126" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="CQ126" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="CR126" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="CS126" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="CT126" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="CU126" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="CV126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CW126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CX126" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="CY126" t="n">
+        <v>0.565</v>
+      </c>
+      <c r="CZ126" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="DA126" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="DB126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="DC126" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="DD126" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="DE126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DF126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DG126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" t="n">
+        <v>122.95885823211</v>
+      </c>
+      <c r="C127" t="n">
+        <v>94.6707539780454</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.735613786620976</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.603010895211314</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.790845910588888</v>
+      </c>
+      <c r="G127" t="n">
+        <v>110.827153441749</v>
+      </c>
+      <c r="H127" t="n">
+        <v>99.1406160590647</v>
+      </c>
+      <c r="I127" t="n">
+        <v>71.8637683642112</v>
+      </c>
+      <c r="J127" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="L127" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="M127" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="N127" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="O127" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="P127" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="S127" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="T127" t="n">
+        <v>64</v>
+      </c>
+      <c r="U127" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="V127" t="n">
+        <v>40</v>
+      </c>
+      <c r="W127" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="X127" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1.652</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BD127" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>122.783517287024</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>90.6258236924989</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>0.7193970466841</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>0.588201540444193</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>0.756867952390836</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>109.739975952838</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>98.6081868217284</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>66.8585044477694</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>52</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="BQ127" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="BR127" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="BS127" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="BT127" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="BV127" t="n">
+        <v>119</v>
+      </c>
+      <c r="BW127" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="BX127" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="BY127" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="BZ127" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="CA127" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="CB127" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC127" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="CD127" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="CE127" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="CF127" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="CG127" t="n">
+        <v>22</v>
+      </c>
+      <c r="CH127" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="CI127" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="CJ127" t="n">
+        <v>49</v>
+      </c>
+      <c r="CK127" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="CL127" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="CM127" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="CN127" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="CO127" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="CP127" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="CQ127" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="CR127" t="n">
+        <v>56</v>
+      </c>
+      <c r="CS127" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="CT127" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="CU127" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="CV127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CW127" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="CX127" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="CY127" t="n">
+        <v>0.562</v>
+      </c>
+      <c r="CZ127" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="DA127" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="DB127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="DC127" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="DD127" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="DE127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DF127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DG127" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
